--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Timp3-Kdr.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Timp3-Kdr.xlsx
@@ -528,22 +528,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>134.6741433333333</v>
+        <v>165.404724</v>
       </c>
       <c r="H2">
-        <v>404.02243</v>
+        <v>496.214172</v>
       </c>
       <c r="I2">
-        <v>0.4097716001282303</v>
+        <v>0.3557141051771751</v>
       </c>
       <c r="J2">
-        <v>0.4097716001282303</v>
+        <v>0.355714105177175</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>162.98837</v>
+        <v>174.1282373333333</v>
       </c>
       <c r="N2">
-        <v>488.96511</v>
+        <v>522.384712</v>
       </c>
       <c r="O2">
-        <v>0.9909539753179891</v>
+        <v>0.985625830323027</v>
       </c>
       <c r="P2">
-        <v>0.9909539753179891</v>
+        <v>0.985625830323027</v>
       </c>
       <c r="Q2">
-        <v>21950.31910304636</v>
+        <v>28801.6330367265</v>
       </c>
       <c r="R2">
-        <v>197552.8719274173</v>
+        <v>259214.6973305385</v>
       </c>
       <c r="S2">
-        <v>0.4060647961194833</v>
+        <v>0.3506010102728657</v>
       </c>
       <c r="T2">
-        <v>0.4060647961194833</v>
+        <v>0.3506010102728657</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>134.6741433333333</v>
+        <v>165.404724</v>
       </c>
       <c r="H3">
-        <v>404.02243</v>
+        <v>496.214172</v>
       </c>
       <c r="I3">
-        <v>0.4097716001282303</v>
+        <v>0.3557141051771751</v>
       </c>
       <c r="J3">
-        <v>0.4097716001282303</v>
+        <v>0.355714105177175</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>1.954069</v>
       </c>
       <c r="O3">
-        <v>0.003960185305646138</v>
+        <v>0.003686901313133159</v>
       </c>
       <c r="P3">
-        <v>0.003960185305646138</v>
+        <v>0.003686901313133159</v>
       </c>
       <c r="Q3">
-        <v>87.72085619640777</v>
+        <v>107.737414540652</v>
       </c>
       <c r="R3">
-        <v>789.48770576767</v>
+        <v>969.6367308658681</v>
       </c>
       <c r="S3">
-        <v>0.001622771469498923</v>
+        <v>0.001311482801477713</v>
       </c>
       <c r="T3">
-        <v>0.001622771469498923</v>
+        <v>0.001311482801477713</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,22 +652,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>134.6741433333333</v>
+        <v>165.404724</v>
       </c>
       <c r="H4">
-        <v>404.02243</v>
+        <v>496.214172</v>
       </c>
       <c r="I4">
-        <v>0.4097716001282303</v>
+        <v>0.3557141051771751</v>
       </c>
       <c r="J4">
-        <v>0.4097716001282303</v>
+        <v>0.355714105177175</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.8364996666666666</v>
+        <v>1.888095</v>
       </c>
       <c r="N4">
-        <v>2.509499</v>
+        <v>5.664285</v>
       </c>
       <c r="O4">
-        <v>0.005085839376364744</v>
+        <v>0.01068726836383999</v>
       </c>
       <c r="P4">
-        <v>0.005085839376364744</v>
+        <v>0.01068726836383999</v>
       </c>
       <c r="Q4">
-        <v>112.6548760069522</v>
+        <v>312.29983236078</v>
       </c>
       <c r="R4">
-        <v>1013.89388406257</v>
+        <v>2810.69849124702</v>
       </c>
       <c r="S4">
-        <v>0.002084032539248142</v>
+        <v>0.003801612102831675</v>
       </c>
       <c r="T4">
-        <v>0.002084032539248142</v>
+        <v>0.003801612102831675</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>394.877754</v>
       </c>
       <c r="I5">
-        <v>0.4004967969516487</v>
+        <v>0.2830704861820888</v>
       </c>
       <c r="J5">
-        <v>0.4004967969516487</v>
+        <v>0.2830704861820888</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>162.98837</v>
+        <v>174.1282373333333</v>
       </c>
       <c r="N5">
-        <v>488.96511</v>
+        <v>522.384712</v>
       </c>
       <c r="O5">
-        <v>0.9909539753179891</v>
+        <v>0.985625830323027</v>
       </c>
       <c r="P5">
-        <v>0.9909539753179891</v>
+        <v>0.985625830323027</v>
       </c>
       <c r="Q5">
-        <v>21453.49382457366</v>
+        <v>22919.78908872187</v>
       </c>
       <c r="R5">
-        <v>193081.4444211629</v>
+        <v>206278.1017984968</v>
       </c>
       <c r="S5">
-        <v>0.3968738930413578</v>
+        <v>0.2790015829831642</v>
       </c>
       <c r="T5">
-        <v>0.3968738930413578</v>
+        <v>0.2790015829831642</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>394.877754</v>
       </c>
       <c r="I6">
-        <v>0.4004967969516487</v>
+        <v>0.2830704861820888</v>
       </c>
       <c r="J6">
-        <v>0.4004967969516487</v>
+        <v>0.2830704861820888</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>1.954069</v>
       </c>
       <c r="O6">
-        <v>0.003960185305646138</v>
+        <v>0.003686901313133159</v>
       </c>
       <c r="P6">
-        <v>0.003960185305646138</v>
+        <v>0.003686901313133159</v>
       </c>
       <c r="Q6">
         <v>85.73537532011399</v>
@@ -818,10 +818,10 @@
         <v>771.6183778810259</v>
       </c>
       <c r="S6">
-        <v>0.001586041530246264</v>
+        <v>0.001043652947213985</v>
       </c>
       <c r="T6">
-        <v>0.001586041530246264</v>
+        <v>0.001043652947213985</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>394.877754</v>
       </c>
       <c r="I7">
-        <v>0.4004967969516487</v>
+        <v>0.2830704861820888</v>
       </c>
       <c r="J7">
-        <v>0.4004967969516487</v>
+        <v>0.2830704861820888</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.8364996666666666</v>
+        <v>1.888095</v>
       </c>
       <c r="N7">
-        <v>2.509499</v>
+        <v>5.664285</v>
       </c>
       <c r="O7">
-        <v>0.005085839376364744</v>
+        <v>0.01068726836383999</v>
       </c>
       <c r="P7">
-        <v>0.005085839376364744</v>
+        <v>0.01068726836383999</v>
       </c>
       <c r="Q7">
-        <v>110.105036531694</v>
+        <v>248.52223764621</v>
       </c>
       <c r="R7">
-        <v>990.9453287852459</v>
+        <v>2236.70013881589</v>
       </c>
       <c r="S7">
-        <v>0.002036862380044651</v>
+        <v>0.003025250251710644</v>
       </c>
       <c r="T7">
-        <v>0.002036862380044651</v>
+        <v>0.003025250251710644</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>62.35654466666666</v>
+        <v>167.962794</v>
       </c>
       <c r="H8">
-        <v>187.069634</v>
+        <v>503.888382</v>
       </c>
       <c r="I8">
-        <v>0.189731602920121</v>
+        <v>0.3612154086407362</v>
       </c>
       <c r="J8">
-        <v>0.189731602920121</v>
+        <v>0.3612154086407361</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>162.98837</v>
+        <v>174.1282373333333</v>
       </c>
       <c r="N8">
-        <v>488.96511</v>
+        <v>522.384712</v>
       </c>
       <c r="O8">
-        <v>0.9909539753179891</v>
+        <v>0.985625830323027</v>
       </c>
       <c r="P8">
-        <v>0.9909539753179891</v>
+        <v>0.985625830323027</v>
       </c>
       <c r="Q8">
-        <v>10163.39157405219</v>
+        <v>29247.06525680178</v>
       </c>
       <c r="R8">
-        <v>91470.52416646972</v>
+        <v>263223.587311216</v>
       </c>
       <c r="S8">
-        <v>0.1880152861571481</v>
+        <v>0.3560232370669971</v>
       </c>
       <c r="T8">
-        <v>0.1880152861571481</v>
+        <v>0.3560232370669971</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>62.35654466666666</v>
+        <v>167.962794</v>
       </c>
       <c r="H9">
-        <v>187.069634</v>
+        <v>503.888382</v>
       </c>
       <c r="I9">
-        <v>0.189731602920121</v>
+        <v>0.3612154086407362</v>
       </c>
       <c r="J9">
-        <v>0.189731602920121</v>
+        <v>0.3612154086407361</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>1.954069</v>
       </c>
       <c r="O9">
-        <v>0.003960185305646138</v>
+        <v>0.003686901313133159</v>
       </c>
       <c r="P9">
-        <v>0.003960185305646138</v>
+        <v>0.003686901313133159</v>
       </c>
       <c r="Q9">
-        <v>40.61633029341621</v>
+        <v>109.403629636262</v>
       </c>
       <c r="R9">
-        <v>365.546972640746</v>
+        <v>984.6326667263581</v>
       </c>
       <c r="S9">
-        <v>0.0007513723059009513</v>
+        <v>0.001331765564441461</v>
       </c>
       <c r="T9">
-        <v>0.0007513723059009513</v>
+        <v>0.001331765564441461</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>62.35654466666666</v>
+        <v>167.962794</v>
       </c>
       <c r="H10">
-        <v>187.069634</v>
+        <v>503.888382</v>
       </c>
       <c r="I10">
-        <v>0.189731602920121</v>
+        <v>0.3612154086407362</v>
       </c>
       <c r="J10">
-        <v>0.189731602920121</v>
+        <v>0.3612154086407361</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.8364996666666666</v>
+        <v>1.888095</v>
       </c>
       <c r="N10">
-        <v>2.509499</v>
+        <v>5.664285</v>
       </c>
       <c r="O10">
-        <v>0.005085839376364744</v>
+        <v>0.01068726836383999</v>
       </c>
       <c r="P10">
-        <v>0.005085839376364744</v>
+        <v>0.01068726836383999</v>
       </c>
       <c r="Q10">
-        <v>52.16122882815177</v>
+        <v>317.12971153743</v>
       </c>
       <c r="R10">
-        <v>469.4510594533659</v>
+        <v>2854.167403836871</v>
       </c>
       <c r="S10">
-        <v>0.0009649444570719516</v>
+        <v>0.003860406009297676</v>
       </c>
       <c r="T10">
-        <v>0.0009649444570719516</v>
+        <v>0.003860406009297675</v>
       </c>
     </row>
   </sheetData>
